--- a/Code/Results/Cases/Case_2_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.808462955326064</v>
+        <v>0.2629091505494614</v>
       </c>
       <c r="C2">
-        <v>0.1195884430190688</v>
+        <v>0.04063551494367346</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3341761987163423</v>
+        <v>0.1643923017644084</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0008085183638390503</v>
+        <v>0.002432897258490295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2312731950193232</v>
+        <v>0.5344660747400489</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8641336357873968</v>
+        <v>0.2694279784494711</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5867588346738231</v>
+        <v>0.2198893434283633</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.091481381578845</v>
+        <v>2.340736204142956</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7057452817478236</v>
+        <v>0.2305834671728917</v>
       </c>
       <c r="C3">
-        <v>0.1060943333984028</v>
+        <v>0.03627817298286118</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2909594826229309</v>
+        <v>0.1535769587299285</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.000812017317331927</v>
+        <v>0.00243508909735331</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2427585319045686</v>
+        <v>0.542137487809546</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7561854664110683</v>
+        <v>0.2352035900325262</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5081471981991825</v>
+        <v>0.1975289479377267</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.114498905017157</v>
+        <v>2.368469090824803</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6426770701341695</v>
+        <v>0.2106926681933601</v>
       </c>
       <c r="C4">
-        <v>0.09780911341742637</v>
+        <v>0.03358632794785876</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2649303756243313</v>
+        <v>0.147056273282125</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0008142319227536732</v>
+        <v>0.002436505613548645</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2505044159798988</v>
+        <v>0.5471805920492336</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6898991116488133</v>
+        <v>0.2141237625049115</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4602451730121615</v>
+        <v>0.1838598537537592</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.131947359764894</v>
+        <v>2.387049353816806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6169687476766228</v>
+        <v>0.2025767713170978</v>
       </c>
       <c r="C5">
-        <v>0.09443152671347832</v>
+        <v>0.03248529472270434</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2544371919539756</v>
+        <v>0.1444289999082571</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008151513891145863</v>
+        <v>0.002437100689860821</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2538288539825331</v>
+        <v>0.5493193112742425</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6628768788575172</v>
+        <v>0.2055174777476623</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4408028815593781</v>
+        <v>0.178304760040561</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.139855128243269</v>
+        <v>2.395010832798178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6126992300080474</v>
+        <v>0.2012285294987635</v>
       </c>
       <c r="C6">
-        <v>0.09387056529523363</v>
+        <v>0.0323022236126036</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2527013086910586</v>
+        <v>0.1439945464538468</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008153051020144093</v>
+        <v>0.002437200580590105</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2543908313606007</v>
+        <v>0.5496794917131727</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6583890136721067</v>
+        <v>0.2040874537986923</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4375788364218351</v>
+        <v>0.1773832578866674</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.141215338164074</v>
+        <v>2.396356364913501</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6423303989915041</v>
+        <v>0.2105832551425522</v>
       </c>
       <c r="C7">
-        <v>0.09776356905044281</v>
+        <v>0.03357149550821248</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2647884168785808</v>
+        <v>0.1470207199304667</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008142442537625219</v>
+        <v>0.00243651356643737</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2505485789994122</v>
+        <v>0.5472090971222237</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6895347317967975</v>
+        <v>0.2140077596095153</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4599826686410324</v>
+        <v>0.1837848743596453</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.132050824851845</v>
+        <v>2.387155147110434</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7730408885652764</v>
+        <v>0.2517724077812602</v>
       </c>
       <c r="C8">
-        <v>0.1149347860931442</v>
+        <v>0.03913653650302251</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3191617193541774</v>
+        <v>0.1606381395221916</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0008097112672218241</v>
+        <v>0.002433638358848593</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2350852968898156</v>
+        <v>0.5370420535246456</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8269089438378217</v>
+        <v>0.2576413734365133</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5595690225869276</v>
+        <v>0.2121669702208848</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.098707226155483</v>
+        <v>2.349976094174565</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.029756442366676</v>
+        <v>0.3321872778399211</v>
       </c>
       <c r="C9">
-        <v>0.1486762072105563</v>
+        <v>0.04991784908125396</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4304521766152831</v>
+        <v>0.1883048242875631</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008013312386600367</v>
+        <v>0.002428558786458334</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2105776261360326</v>
+        <v>0.5197486755265928</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.096680706691018</v>
+        <v>0.3426662984888367</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7584340130675145</v>
+        <v>0.2683047487026968</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.061359997952508</v>
+        <v>2.289403261523972</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.219197967344741</v>
+        <v>0.3910318872014784</v>
       </c>
       <c r="C10">
-        <v>0.1736107786226597</v>
+        <v>0.05775740686748065</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5160354519697847</v>
+        <v>0.209235927322176</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007954605093143385</v>
+        <v>0.002425164035265847</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.196573565017065</v>
+        <v>0.5086595308193687</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.295770378372168</v>
+        <v>0.4047872291576198</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9077368501489431</v>
+        <v>0.3098496156781891</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.053570083405774</v>
+        <v>2.252447271022618</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.305704477768529</v>
+        <v>0.4177469747199893</v>
       </c>
       <c r="C11">
-        <v>0.1850107586859906</v>
+        <v>0.06130593543119289</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5560349885280331</v>
+        <v>0.2188931175877045</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007928461295658761</v>
+        <v>0.002423692175796249</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1911803939264232</v>
+        <v>0.5039666865079226</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.386693607184554</v>
+        <v>0.4329690376270605</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9765988331986435</v>
+        <v>0.3288165552036446</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.054903446460642</v>
+        <v>2.237279619666296</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.338522125194913</v>
+        <v>0.4278551471108756</v>
       </c>
       <c r="C12">
-        <v>0.1893380996340426</v>
+        <v>0.0626470885409276</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5713566845553046</v>
+        <v>0.2225697958639969</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007918637145116952</v>
+        <v>0.002423145181836403</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1892885152197685</v>
+        <v>0.502240284588737</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.421189142878177</v>
+        <v>0.4436292278356575</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.002832840715001</v>
+        <v>0.3360086701056844</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.056164868630347</v>
+        <v>2.231772900159328</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.331451405222651</v>
+        <v>0.425678546898439</v>
       </c>
       <c r="C13">
-        <v>0.1884056289342055</v>
+        <v>0.06235836352441027</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5680487534500358</v>
+        <v>0.2217770772853527</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007920749657186168</v>
+        <v>0.00242326252625862</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1896891114539336</v>
+        <v>0.5026098405718997</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.413756797227165</v>
+        <v>0.4413338916639304</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9971755075060713</v>
+        <v>0.334459286435802</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.055858629610839</v>
+        <v>2.232948323773911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.308403139004326</v>
+        <v>0.4185787486066488</v>
       </c>
       <c r="C14">
-        <v>0.1853665495735299</v>
+        <v>0.06141632524146701</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5572918833489311</v>
+        <v>0.2191952038384528</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007927651564396116</v>
+        <v>0.002423646966712342</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.191021674690397</v>
+        <v>0.503823638136442</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.389530193217524</v>
+        <v>0.4338462943891841</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9787538334538439</v>
+        <v>0.3294080596474203</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.054991731972123</v>
+        <v>2.236821826671132</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.294293540825578</v>
+        <v>0.4142288265584284</v>
       </c>
       <c r="C15">
-        <v>0.1835064508354378</v>
+        <v>0.06083895986398602</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5507264081353611</v>
+        <v>0.2176163051832702</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007931888918882857</v>
+        <v>0.002423883796140553</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1918577992609585</v>
+        <v>0.5045737269467594</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.374699572157851</v>
+        <v>0.429258392087462</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9674912115733534</v>
+        <v>0.3263153058592252</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.054560960313381</v>
+        <v>2.239225332419039</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.213552201439285</v>
+        <v>0.3892848681247756</v>
       </c>
       <c r="C16">
-        <v>0.1728670964017454</v>
+        <v>0.05752514132200304</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5134446418360668</v>
+        <v>0.2086075532913299</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.000795632455449111</v>
+        <v>0.002425261678265245</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1969465145792952</v>
+        <v>0.5089733047947362</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.289836643031151</v>
+        <v>0.4029438804523977</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9032573647067181</v>
+        <v>0.3086114469612156</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.053585708839165</v>
+        <v>2.253471638541427</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.16411258620542</v>
+        <v>0.3739684383785402</v>
       </c>
       <c r="C17">
-        <v>0.1663563339095617</v>
+        <v>0.055487646245723</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4908614164062897</v>
+        <v>0.20311584491958</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.000797145567225369</v>
+        <v>0.002426125480900366</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2003253904159621</v>
+        <v>0.5117624492656603</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.237876613895168</v>
+        <v>0.3867805989045223</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8641085645278181</v>
+        <v>0.2977680922761508</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.054274550069991</v>
+        <v>2.262632706486116</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.135706367320182</v>
+        <v>0.3651538182490697</v>
       </c>
       <c r="C18">
-        <v>0.1626167489233126</v>
+        <v>0.05431406743834089</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4779712242210437</v>
+        <v>0.1999699026883732</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007980211946591495</v>
+        <v>0.002426629137628922</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2023601921082019</v>
+        <v>0.5133997851645056</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.208023239218875</v>
+        <v>0.377476661243719</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8416785965419038</v>
+        <v>0.2915376808683163</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.055126264837014</v>
+        <v>2.268056600427087</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.126093328616065</v>
+        <v>0.3621684945498487</v>
       </c>
       <c r="C19">
-        <v>0.1613514245264298</v>
+        <v>0.0539164292555796</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4736232248580734</v>
+        <v>0.1989069226086215</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007983185962726515</v>
+        <v>0.002426800840157547</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2030645435975806</v>
+        <v>0.513959839575854</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.197920611022283</v>
+        <v>0.3743252796070067</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8340985677116279</v>
+        <v>0.2894292705678154</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.055491259495241</v>
+        <v>2.269919588731156</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.169372312568925</v>
+        <v>0.3755994214156146</v>
       </c>
       <c r="C20">
-        <v>0.1670488587089238</v>
+        <v>0.05570471380427477</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4932550363455519</v>
+        <v>0.2036991261777814</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007969839461929605</v>
+        <v>0.002426032822197343</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1999561785886783</v>
+        <v>0.5114621142138525</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.243404372219317</v>
+        <v>0.3885019615700003</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8682668246484511</v>
+        <v>0.2989217237808006</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.054153691196632</v>
+        <v>2.261641481253477</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.315171255851595</v>
+        <v>0.4206643597070752</v>
       </c>
       <c r="C21">
-        <v>0.186258899648891</v>
+        <v>0.06169309560797842</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5604465159474969</v>
+        <v>0.2199530259701703</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007925622287357091</v>
+        <v>0.002423533766230623</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1906261046597812</v>
+        <v>0.5034657401687426</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.396644258930053</v>
+        <v>0.4360459035827375</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9841602691370994</v>
+        <v>0.3308914630996682</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.055225368965253</v>
+        <v>2.235677649987892</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.410812569104905</v>
+        <v>0.4500685570073983</v>
       </c>
       <c r="C22">
-        <v>0.1988756485223888</v>
+        <v>0.06559168589024011</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6053897583157379</v>
+        <v>0.2306908762250259</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007897163890543402</v>
+        <v>0.002421960895503779</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1854101031238784</v>
+        <v>0.4985350781300006</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.497180715054014</v>
+        <v>0.4670504739672197</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.060832645609395</v>
+        <v>0.3518423334737832</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.060363937877156</v>
+        <v>2.220090118732315</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.359730365323173</v>
+        <v>0.4343795851337973</v>
       </c>
       <c r="C23">
-        <v>0.1921354113330835</v>
+        <v>0.06351233833963477</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5813009742375215</v>
+        <v>0.2249492889998095</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007912314128764864</v>
+        <v>0.00242279485476333</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1881098534694843</v>
+        <v>0.5011395977630428</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.443482455850614</v>
+        <v>0.4505091612932404</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.019818433636146</v>
+        <v>0.3406552717464493</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.057195956841198</v>
+        <v>2.228282899743292</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.166994337388275</v>
+        <v>0.3748620819806376</v>
       </c>
       <c r="C24">
-        <v>0.1667357573876558</v>
+        <v>0.05560658439770805</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4921725920443123</v>
+        <v>0.2034353894981322</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007970569972638432</v>
+        <v>0.002426074691265586</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2001228126826504</v>
+        <v>0.5115977903519635</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.240905214087377</v>
+        <v>0.3877237691409334</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8663866364182482</v>
+        <v>0.2984001558346847</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.054206916242777</v>
+        <v>2.262089124942875</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.960207430765962</v>
+        <v>0.3104730703174425</v>
       </c>
       <c r="C25">
-        <v>0.1395307798265577</v>
+        <v>0.04701544239696887</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3997496326014698</v>
+        <v>0.1807153683529563</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008035461740479845</v>
+        <v>0.002429873484279421</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.216539685155098</v>
+        <v>0.5241434676949126</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.023594709243213</v>
+        <v>0.3197244732690478</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7041524850111074</v>
+        <v>0.2530657724327057</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.068208132873465</v>
+        <v>2.304466459349513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_92/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_92/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2629091505494614</v>
+        <v>0.808462955326064</v>
       </c>
       <c r="C2">
-        <v>0.04063551494367346</v>
+        <v>0.119588443019353</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1643923017644084</v>
+        <v>0.3341761987162997</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002432897258490295</v>
+        <v>0.0008085183638381681</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5344660747400489</v>
+        <v>0.2312731950193339</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2694279784494711</v>
+        <v>0.8641336357875105</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2198893434283633</v>
+        <v>0.5867588346738231</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.340736204142956</v>
+        <v>1.091481381578802</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2305834671728917</v>
+        <v>0.7057452817477952</v>
       </c>
       <c r="C3">
-        <v>0.03627817298286118</v>
+        <v>0.1060943333983602</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1535769587299285</v>
+        <v>0.2909594826229522</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.00243508909735331</v>
+        <v>0.0008120173173288592</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.542137487809546</v>
+        <v>0.2427585319045669</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2352035900325262</v>
+        <v>0.756185466411182</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1975289479377267</v>
+        <v>0.5081471981991754</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.368469090824803</v>
+        <v>1.114498905017214</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2106926681933601</v>
+        <v>0.6426770701343401</v>
       </c>
       <c r="C4">
-        <v>0.03358632794785876</v>
+        <v>0.09780911341766796</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.147056273282125</v>
+        <v>0.26493037562431</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002436505613548645</v>
+        <v>0.0008142319227701843</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5471805920492336</v>
+        <v>0.2505044159798935</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2141237625049115</v>
+        <v>0.6898991116486854</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1838598537537592</v>
+        <v>0.4602451730121686</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.387049353816806</v>
+        <v>1.131947359764823</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2025767713170978</v>
+        <v>0.6169687476765091</v>
       </c>
       <c r="C5">
-        <v>0.03248529472270434</v>
+        <v>0.09443152671342148</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1444289999082571</v>
+        <v>0.2544371919539472</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002437100689860821</v>
+        <v>0.0008151513890988096</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5493193112742425</v>
+        <v>0.2538288539825082</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2055174777476623</v>
+        <v>0.6628768788576167</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.178304760040561</v>
+        <v>0.440802881559371</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.395010832798178</v>
+        <v>1.139855128243227</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2012285294987635</v>
+        <v>0.6126992300079337</v>
       </c>
       <c r="C6">
-        <v>0.0323022236126036</v>
+        <v>0.09387056529523363</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1439945464538468</v>
+        <v>0.252701308691087</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002437200580590105</v>
+        <v>0.0008153051020729384</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5496794917131727</v>
+        <v>0.2543908313606096</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2040874537986923</v>
+        <v>0.6583890136720925</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1773832578866674</v>
+        <v>0.4375788364218351</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.396356364913501</v>
+        <v>1.141215338164031</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2105832551425522</v>
+        <v>0.6423303989916462</v>
       </c>
       <c r="C7">
-        <v>0.03357149550821248</v>
+        <v>0.09776356905045702</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1470207199304667</v>
+        <v>0.2647884168785808</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00243651356643737</v>
+        <v>0.0008142442537630746</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5472090971222237</v>
+        <v>0.2505485789994069</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2140077596095153</v>
+        <v>0.6895347317968117</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1837848743596453</v>
+        <v>0.4599826686410395</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.387155147110434</v>
+        <v>1.132050824851817</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2517724077812602</v>
+        <v>0.7730408885651343</v>
       </c>
       <c r="C8">
-        <v>0.03913653650302251</v>
+        <v>0.1149347860930163</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1606381395221916</v>
+        <v>0.3191617193541774</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002433638358848593</v>
+        <v>0.0008097112671620385</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5370420535246456</v>
+        <v>0.2350852968898387</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2576413734365133</v>
+        <v>0.8269089438377648</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2121669702208848</v>
+        <v>0.559569022586949</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.349976094174565</v>
+        <v>1.098707226155497</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3321872778399211</v>
+        <v>1.029756442366676</v>
       </c>
       <c r="C9">
-        <v>0.04991784908125396</v>
+        <v>0.1486762072107979</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1883048242875631</v>
+        <v>0.4304521766152902</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002428558786458334</v>
+        <v>0.0008013312386423244</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5197486755265928</v>
+        <v>0.210577626136029</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3426662984888367</v>
+        <v>1.096680706691046</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2683047487026968</v>
+        <v>0.7584340130675216</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.289403261523972</v>
+        <v>1.061359997952508</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3910318872014784</v>
+        <v>1.219197967344599</v>
       </c>
       <c r="C10">
-        <v>0.05775740686748065</v>
+        <v>0.1736107786224181</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.209235927322176</v>
+        <v>0.5160354519698132</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002425164035265847</v>
+        <v>0.0007954605092543424</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5086595308193687</v>
+        <v>0.1965735650170615</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4047872291576198</v>
+        <v>1.295770378372254</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3098496156781891</v>
+        <v>0.9077368501489573</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.252447271022618</v>
+        <v>1.053570083405887</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4177469747199893</v>
+        <v>1.305704477768529</v>
       </c>
       <c r="C11">
-        <v>0.06130593543119289</v>
+        <v>0.185010758685749</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2188931175877045</v>
+        <v>0.5560349885280189</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002423692175796249</v>
+        <v>0.0007928461294886557</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5039666865079226</v>
+        <v>0.1911803939264196</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4329690376270605</v>
+        <v>1.386693607184554</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3288165552036446</v>
+        <v>0.9765988331986648</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.237279619666296</v>
+        <v>1.054903446460614</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4278551471108756</v>
+        <v>1.338522125195027</v>
       </c>
       <c r="C12">
-        <v>0.0626470885409276</v>
+        <v>0.1893380996342131</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2225697958639969</v>
+        <v>0.5713566845552833</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002423145181836403</v>
+        <v>0.0007918637145865604</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.502240284588737</v>
+        <v>0.1892885152197685</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4436292278356575</v>
+        <v>1.421189142878319</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3360086701056844</v>
+        <v>1.002832840714987</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.231772900159328</v>
+        <v>1.056164868630404</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.425678546898439</v>
+        <v>1.331451405222737</v>
       </c>
       <c r="C13">
-        <v>0.06235836352441027</v>
+        <v>0.1884056289341487</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2217770772853527</v>
+        <v>0.5680487534500287</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.00242326252625862</v>
+        <v>0.0007920749657181727</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5026098405718997</v>
+        <v>0.1896891114539372</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4413338916639304</v>
+        <v>1.413756797227222</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.334459286435802</v>
+        <v>0.9971755075060642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.232948323773911</v>
+        <v>1.055858629610853</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4185787486066488</v>
+        <v>1.30840313900427</v>
       </c>
       <c r="C14">
-        <v>0.06141632524146701</v>
+        <v>0.1853665495730041</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2191952038384528</v>
+        <v>0.5572918833489169</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002423646966712342</v>
+        <v>0.0007927651564393901</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.503823638136442</v>
+        <v>0.1910216746904005</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4338462943891841</v>
+        <v>1.389530193217553</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3294080596474203</v>
+        <v>0.9787538334538581</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.236821826671132</v>
+        <v>1.05499173197218</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4142288265584284</v>
+        <v>1.294293540825407</v>
       </c>
       <c r="C15">
-        <v>0.06083895986398602</v>
+        <v>0.1835064508349831</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2176163051832702</v>
+        <v>0.5507264081353611</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002423883796140553</v>
+        <v>0.0007931888918301866</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5045737269467594</v>
+        <v>0.1918577992609478</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.429258392087462</v>
+        <v>1.374699572157738</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3263153058592252</v>
+        <v>0.9674912115733747</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.239225332419039</v>
+        <v>1.054560960313395</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3892848681247756</v>
+        <v>1.213552201439427</v>
       </c>
       <c r="C16">
-        <v>0.05752514132200304</v>
+        <v>0.1728670964018022</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2086075532913299</v>
+        <v>0.5134446418360596</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002425261678265245</v>
+        <v>0.0007956324553910994</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5089733047947362</v>
+        <v>0.1969465145793023</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4029438804523977</v>
+        <v>1.28983664303118</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3086114469612156</v>
+        <v>0.9032573647067181</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.253471638541427</v>
+        <v>1.053585708839222</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3739684383785402</v>
+        <v>1.164112586205391</v>
       </c>
       <c r="C17">
-        <v>0.055487646245723</v>
+        <v>0.1663563339095617</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.20311584491958</v>
+        <v>0.4908614164062897</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002426125480900366</v>
+        <v>0.0007971455672237565</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5117624492656603</v>
+        <v>0.2003253904159621</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3867805989045223</v>
+        <v>1.237876613895139</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2977680922761508</v>
+        <v>0.8641085645277755</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.262632706486116</v>
+        <v>1.054274550069991</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3651538182490697</v>
+        <v>1.135706367320211</v>
       </c>
       <c r="C18">
-        <v>0.05431406743834089</v>
+        <v>0.1626167489235399</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1999699026883732</v>
+        <v>0.477971224221065</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002426629137628922</v>
+        <v>0.0007980211947159236</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5133997851645056</v>
+        <v>0.2023601921082161</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.377476661243719</v>
+        <v>1.208023239218818</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2915376808683163</v>
+        <v>0.8416785965419109</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.268056600427087</v>
+        <v>1.055126264837028</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3621684945498487</v>
+        <v>1.126093328616179</v>
       </c>
       <c r="C19">
-        <v>0.0539164292555796</v>
+        <v>0.1613514245264724</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1989069226086215</v>
+        <v>0.4736232248580663</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002426800840157547</v>
+        <v>0.0007983185962129045</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.513959839575854</v>
+        <v>0.20306454359757</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3743252796070067</v>
+        <v>1.197920611022369</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2894292705678154</v>
+        <v>0.8340985677115995</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.269919588731156</v>
+        <v>1.055491259495312</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3755994214156146</v>
+        <v>1.169372312569038</v>
       </c>
       <c r="C20">
-        <v>0.05570471380427477</v>
+        <v>0.1670488587091938</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2036991261777814</v>
+        <v>0.4932550363455448</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002426032822197343</v>
+        <v>0.0007969839462670675</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5114621142138525</v>
+        <v>0.1999561785886748</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3885019615700003</v>
+        <v>1.243404372219317</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2989217237808006</v>
+        <v>0.8682668246484582</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.261641481253477</v>
+        <v>1.054153691196646</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4206643597070752</v>
+        <v>1.315171255851567</v>
       </c>
       <c r="C21">
-        <v>0.06169309560797842</v>
+        <v>0.1862588996489052</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2199530259701703</v>
+        <v>0.5604465159474827</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002423533766230623</v>
+        <v>0.0007925622287528404</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5034657401687426</v>
+        <v>0.1906261046597955</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4360459035827375</v>
+        <v>1.396644258930024</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3308914630996682</v>
+        <v>0.9841602691371065</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.235677649987892</v>
+        <v>1.055225368965239</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4500685570073983</v>
+        <v>1.410812569104877</v>
       </c>
       <c r="C22">
-        <v>0.06559168589024011</v>
+        <v>0.1988756485221472</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2306908762250259</v>
+        <v>0.6053897583157237</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002421960895503779</v>
+        <v>0.0007897163890341228</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4985350781300006</v>
+        <v>0.1854101031238855</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4670504739672197</v>
+        <v>1.4971807150541</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3518423334737832</v>
+        <v>1.060832645609395</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.220090118732315</v>
+        <v>1.060363937877227</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4343795851337973</v>
+        <v>1.359730365323287</v>
       </c>
       <c r="C23">
-        <v>0.06351233833963477</v>
+        <v>0.1921354113333251</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2249492889998095</v>
+        <v>0.5813009742375357</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.00242279485476333</v>
+        <v>0.0007912314128774015</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5011395977630428</v>
+        <v>0.1881098534694985</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4505091612932404</v>
+        <v>1.443482455850756</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3406552717464493</v>
+        <v>1.019818433636139</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.228282899743292</v>
+        <v>1.057195956841241</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3748620819806376</v>
+        <v>1.166994337388388</v>
       </c>
       <c r="C24">
-        <v>0.05560658439770805</v>
+        <v>0.16673575738767</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2034353894981322</v>
+        <v>0.4921725920443123</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002426074691265586</v>
+        <v>0.0007970569972472937</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5115977903519635</v>
+        <v>0.2001228126826184</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3877237691409334</v>
+        <v>1.240905214087462</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2984001558346847</v>
+        <v>0.8663866364182553</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.262089124942875</v>
+        <v>1.054206916242762</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3104730703174425</v>
+        <v>0.9602074307659905</v>
       </c>
       <c r="C25">
-        <v>0.04701544239696887</v>
+        <v>0.1395307798262451</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1807153683529563</v>
+        <v>0.3997496326014485</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002429873484279421</v>
+        <v>0.0008035461740652309</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5241434676949126</v>
+        <v>0.2165396851550803</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3197244732690478</v>
+        <v>1.023594709243156</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2530657724327057</v>
+        <v>0.7041524850111145</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.304466459349513</v>
+        <v>1.068208132873409</v>
       </c>
     </row>
   </sheetData>
